--- a/Autoformer/experiment.xlsx
+++ b/Autoformer/experiment.xlsx
@@ -8,32 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大三下学习\毕设\TimeSeiresPrediction_pytorch\Autoformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB84FB8-6D70-4A7D-A8E9-9347EBDB9EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7B8424-DB9F-445D-8BEF-34DCDBF5A138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9183AEB4-B936-48E7-8E93-DE9431C31AC2}"/>
+    <workbookView xWindow="225" yWindow="555" windowWidth="21600" windowHeight="12600" activeTab="1" xr2:uid="{9183AEB4-B936-48E7-8E93-DE9431C31AC2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Linear" sheetId="1" r:id="rId1"/>
+    <sheet name="SingleRNN" sheetId="2" r:id="rId2"/>
+    <sheet name="MultiRNN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
   <si>
     <t>Autoformer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +90,30 @@
   </si>
   <si>
     <t>Linear100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +283,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:f>Linear!$B$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -285,7 +303,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$E$7</c:f>
+              <c:f>Linear!$B$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -325,7 +343,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:f>Linear!$B$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -345,7 +363,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$E$8</c:f>
+              <c:f>Linear!$B$8:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -385,7 +403,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:f>Linear!$B$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -405,7 +423,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$E$9</c:f>
+              <c:f>Linear!$B$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -445,7 +463,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:f>Linear!$B$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -465,7 +483,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$E$10</c:f>
+              <c:f>Linear!$B$10:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -505,7 +523,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:f>Linear!$B$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -525,7 +543,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$E$11</c:f>
+              <c:f>Linear!$B$11:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -845,7 +863,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:f>Linear!$B$13:$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -865,7 +883,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$E$14</c:f>
+              <c:f>Linear!$B$14:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -905,7 +923,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:f>Linear!$B$13:$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -925,7 +943,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$E$15</c:f>
+              <c:f>Linear!$B$15:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -965,7 +983,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:f>Linear!$B$13:$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -985,7 +1003,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$E$16</c:f>
+              <c:f>Linear!$B$16:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1025,7 +1043,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:f>Linear!$B$13:$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1045,7 +1063,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$E$17</c:f>
+              <c:f>Linear!$B$17:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1085,7 +1103,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:f>Linear!$B$13:$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1105,7 +1123,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$E$18</c:f>
+              <c:f>Linear!$B$18:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1425,7 +1443,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$20:$E$20</c:f>
+              <c:f>Linear!$B$20:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1445,7 +1463,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$E$21</c:f>
+              <c:f>Linear!$B$21:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1485,7 +1503,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$20:$E$20</c:f>
+              <c:f>Linear!$B$20:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1505,7 +1523,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$E$22</c:f>
+              <c:f>Linear!$B$22:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1545,7 +1563,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$20:$E$20</c:f>
+              <c:f>Linear!$B$20:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1565,7 +1583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23:$E$23</c:f>
+              <c:f>Linear!$B$23:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1605,7 +1623,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$20:$E$20</c:f>
+              <c:f>Linear!$B$20:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1625,7 +1643,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$E$24</c:f>
+              <c:f>Linear!$B$24:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1665,7 +1683,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$20:$E$20</c:f>
+              <c:f>Linear!$B$20:$E$20</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1685,7 +1703,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$E$25</c:f>
+              <c:f>Linear!$B$25:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2005,7 +2023,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$27:$E$27</c:f>
+              <c:f>Linear!$B$27:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2025,7 +2043,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$E$28</c:f>
+              <c:f>Linear!$B$28:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2065,7 +2083,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$27:$E$27</c:f>
+              <c:f>Linear!$B$27:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2085,7 +2103,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$E$29</c:f>
+              <c:f>Linear!$B$29:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2125,7 +2143,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$27:$E$27</c:f>
+              <c:f>Linear!$B$27:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2145,7 +2163,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$30:$E$30</c:f>
+              <c:f>Linear!$B$30:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2185,7 +2203,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$27:$E$27</c:f>
+              <c:f>Linear!$B$27:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2205,7 +2223,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$31:$E$31</c:f>
+              <c:f>Linear!$B$31:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2245,7 +2263,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$27:$E$27</c:f>
+              <c:f>Linear!$B$27:$E$27</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2265,7 +2283,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$32:$E$32</c:f>
+              <c:f>Linear!$B$32:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2585,7 +2603,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$34:$E$34</c:f>
+              <c:f>Linear!$B$34:$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2605,7 +2623,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$35:$E$35</c:f>
+              <c:f>Linear!$B$35:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2645,7 +2663,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$34:$E$34</c:f>
+              <c:f>Linear!$B$34:$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2665,7 +2683,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$36:$E$36</c:f>
+              <c:f>Linear!$B$36:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2705,7 +2723,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$34:$E$34</c:f>
+              <c:f>Linear!$B$34:$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2725,7 +2743,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$37:$E$37</c:f>
+              <c:f>Linear!$B$37:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2765,7 +2783,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$34:$E$34</c:f>
+              <c:f>Linear!$B$34:$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2785,7 +2803,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$38:$E$38</c:f>
+              <c:f>Linear!$B$38:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2825,7 +2843,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$34:$E$34</c:f>
+              <c:f>Linear!$B$34:$E$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2845,7 +2863,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$39:$E$39</c:f>
+              <c:f>Linear!$B$39:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3165,7 +3183,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$41:$E$41</c:f>
+              <c:f>Linear!$B$41:$E$41</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3185,7 +3203,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$42:$E$42</c:f>
+              <c:f>Linear!$B$42:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3225,7 +3243,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$41:$E$41</c:f>
+              <c:f>Linear!$B$41:$E$41</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3245,7 +3263,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$E$43</c:f>
+              <c:f>Linear!$B$43:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3285,7 +3303,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$41:$E$41</c:f>
+              <c:f>Linear!$B$41:$E$41</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3305,7 +3323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$44:$E$44</c:f>
+              <c:f>Linear!$B$44:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3345,7 +3363,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$41:$E$41</c:f>
+              <c:f>Linear!$B$41:$E$41</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3365,7 +3383,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$45:$E$45</c:f>
+              <c:f>Linear!$B$45:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3405,7 +3423,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$41:$E$41</c:f>
+              <c:f>Linear!$B$41:$E$41</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3425,7 +3443,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$46:$E$46</c:f>
+              <c:f>Linear!$B$46:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -7431,8 +7449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9810FEEC-559B-4DA5-A562-DDEA1CD6D2AD}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8102,4 +8120,1260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B39C35-1783-4927-B078-C5162AF787E7}">
+  <dimension ref="A2:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.5522314719855699E-3</v>
+      </c>
+      <c r="C3">
+        <v>4.7605253756046198E-2</v>
+      </c>
+      <c r="D3">
+        <v>5.9600599110126398E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.99640241474844504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.0288347490131799E-2</v>
+      </c>
+      <c r="C4">
+        <v>8.0959782004356301E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.101431488990783</v>
+      </c>
+      <c r="E4">
+        <v>0.98958436958491802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.6701466441154397E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.189125150442123</v>
+      </c>
+      <c r="D5">
+        <v>0.23812068998813599</v>
+      </c>
+      <c r="E5">
+        <v>0.94259754940867402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.137163460254669</v>
+      </c>
+      <c r="C6">
+        <v>0.289346873760223</v>
+      </c>
+      <c r="D6">
+        <v>0.37035584449768</v>
+      </c>
+      <c r="E6">
+        <v>0.86111412942409504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.114095531404018</v>
+      </c>
+      <c r="C7">
+        <v>0.25315627455711298</v>
+      </c>
+      <c r="D7">
+        <v>0.33778029680251997</v>
+      </c>
+      <c r="E7">
+        <v>0.88445600122213297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3.4986187238246198E-3</v>
+      </c>
+      <c r="C10">
+        <v>4.7192625701427397E-2</v>
+      </c>
+      <c r="D10">
+        <v>5.9149123728275299E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.99645671225152899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1.0877154767513201E-2</v>
+      </c>
+      <c r="C11">
+        <v>8.3264537155628204E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.104293599724769</v>
+      </c>
+      <c r="E11">
+        <v>0.98898827750235796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>6.2481787055730799E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.198477208614349</v>
+      </c>
+      <c r="D12">
+        <v>0.24996356666088099</v>
+      </c>
+      <c r="E12">
+        <v>0.93674576282501198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0.13520431518554599</v>
+      </c>
+      <c r="C13">
+        <v>0.28738170862197798</v>
+      </c>
+      <c r="D13">
+        <v>0.36770138144493097</v>
+      </c>
+      <c r="E13">
+        <v>0.86309786140918698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0.122105225920677</v>
+      </c>
+      <c r="C14">
+        <v>0.265354514122009</v>
+      </c>
+      <c r="D14">
+        <v>0.34943556785583402</v>
+      </c>
+      <c r="E14">
+        <v>0.876344613730907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3.6575188860297199E-3</v>
+      </c>
+      <c r="C17">
+        <v>4.8309262841939898E-2</v>
+      </c>
+      <c r="D17">
+        <v>6.0477424412965698E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.99629578320309498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1.0706057772040299E-2</v>
+      </c>
+      <c r="C18">
+        <v>8.2525879144668496E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.103470079600811</v>
+      </c>
+      <c r="E18">
+        <v>0.98916149139404297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>5.8225963264703702E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.19192586839199</v>
+      </c>
+      <c r="D19">
+        <v>0.24130056798458099</v>
+      </c>
+      <c r="E19">
+        <v>0.94105420261621398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>0.13246725499629899</v>
+      </c>
+      <c r="C20">
+        <v>0.28464326262473999</v>
+      </c>
+      <c r="D20">
+        <v>0.36396050453186002</v>
+      </c>
+      <c r="E20">
+        <v>0.86586929857730799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>0.12173233926296199</v>
+      </c>
+      <c r="C21">
+        <v>0.264477849006652</v>
+      </c>
+      <c r="D21">
+        <v>0.34890162944793701</v>
+      </c>
+      <c r="E21">
+        <v>0.876722231507301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>3.6134903784841299E-3</v>
+      </c>
+      <c r="C24">
+        <v>4.8003260046243598E-2</v>
+      </c>
+      <c r="D24">
+        <v>6.0112316161394098E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.99634037376381401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1.20398309081792E-2</v>
+      </c>
+      <c r="C25">
+        <v>8.7614767253398895E-2</v>
+      </c>
+      <c r="D25">
+        <v>0.10972616076469401</v>
+      </c>
+      <c r="E25">
+        <v>0.98781121708452702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>5.8711051940917899E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.192708134651184</v>
+      </c>
+      <c r="D26">
+        <v>0.24230363965034399</v>
+      </c>
+      <c r="E26">
+        <v>0.94056311622262001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>0.13557833433151201</v>
+      </c>
+      <c r="C27">
+        <v>0.28775468468665999</v>
+      </c>
+      <c r="D27">
+        <v>0.36820963025093001</v>
+      </c>
+      <c r="E27">
+        <v>0.86271914839744501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>0.118288457393646</v>
+      </c>
+      <c r="C28">
+        <v>0.260029137134552</v>
+      </c>
+      <c r="D28">
+        <v>0.34393090009689298</v>
+      </c>
+      <c r="E28">
+        <v>0.88020983338355996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>3.6184142809361202E-3</v>
+      </c>
+      <c r="C31">
+        <v>4.8050381243228898E-2</v>
+      </c>
+      <c r="D31">
+        <v>6.0153257101774202E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.99633538699708801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1.1697380803525399E-2</v>
+      </c>
+      <c r="C32">
+        <v>8.6299411952495506E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.10815443098545</v>
+      </c>
+      <c r="E32">
+        <v>0.988157903775572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>6.1125900596380199E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.19656482338905301</v>
+      </c>
+      <c r="D33">
+        <v>0.24723653495311701</v>
+      </c>
+      <c r="E33">
+        <v>0.93811841681599595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>0.13445021212100899</v>
+      </c>
+      <c r="C34">
+        <v>0.28639551997184698</v>
+      </c>
+      <c r="D34">
+        <v>0.36667454242706299</v>
+      </c>
+      <c r="E34">
+        <v>0.86386144161224299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>0.120863109827041</v>
+      </c>
+      <c r="C35">
+        <v>0.262721568346023</v>
+      </c>
+      <c r="D35">
+        <v>0.34765371680259699</v>
+      </c>
+      <c r="E35">
+        <v>0.87760250270366602</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>3.5499488003551899E-3</v>
+      </c>
+      <c r="C38">
+        <v>4.7606330364942502E-2</v>
+      </c>
+      <c r="D38">
+        <v>5.9581447392702103E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.99640472652390599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>1.0774412192404201E-2</v>
+      </c>
+      <c r="C39">
+        <v>8.2822032272815704E-2</v>
+      </c>
+      <c r="D39">
+        <v>0.10379986464977201</v>
+      </c>
+      <c r="E39">
+        <v>0.98909229040145796</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>5.9739422053098602E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.19431418180465601</v>
+      </c>
+      <c r="D40">
+        <v>0.24441649019718101</v>
+      </c>
+      <c r="E40">
+        <v>0.93952203541994095</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>0.135698437690734</v>
+      </c>
+      <c r="C41">
+        <v>0.28787624835968001</v>
+      </c>
+      <c r="D41">
+        <v>0.36837267875671298</v>
+      </c>
+      <c r="E41">
+        <v>0.86259754002094202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>0.108216971158981</v>
+      </c>
+      <c r="C42">
+        <v>0.246427282691001</v>
+      </c>
+      <c r="D42">
+        <v>0.32896348834037697</v>
+      </c>
+      <c r="E42">
+        <v>0.89040918648242895</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4753813C-71CC-41E8-AF34-68E6995A423C}">
+  <dimension ref="A2:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.9423751160502399E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.10906239598989401</v>
+      </c>
+      <c r="D3">
+        <v>0.13936911523342099</v>
+      </c>
+      <c r="E3">
+        <v>0.98032825253903799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2.4119421839714002E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.122485145926475</v>
+      </c>
+      <c r="D4">
+        <v>0.15530428290367099</v>
+      </c>
+      <c r="E4">
+        <v>0.97558218240737904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6.10942207276821E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.19306227564811701</v>
+      </c>
+      <c r="D5">
+        <v>0.24717244505882199</v>
+      </c>
+      <c r="E5">
+        <v>0.938150484114885</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>8.6841426789760506E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.22482909262180301</v>
+      </c>
+      <c r="D6">
+        <v>0.29468870162963801</v>
+      </c>
+      <c r="E6">
+        <v>0.91206806153058995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.10529792308807299</v>
+      </c>
+      <c r="C7">
+        <v>0.25502482056617698</v>
+      </c>
+      <c r="D7">
+        <v>0.32449641823768599</v>
+      </c>
+      <c r="E7">
+        <v>0.89336528629064504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1.43960397690534E-2</v>
+      </c>
+      <c r="C10">
+        <v>9.4326831400394398E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.11998349428176799</v>
+      </c>
+      <c r="E10">
+        <v>0.98542015627026502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2.0132318139076202E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.112204119563102</v>
+      </c>
+      <c r="D11">
+        <v>0.14188839495182001</v>
+      </c>
+      <c r="E11">
+        <v>0.97961861267685801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>5.6670952588319702E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.18540383875370001</v>
+      </c>
+      <c r="D12">
+        <v>0.238056614995002</v>
+      </c>
+      <c r="E12">
+        <v>0.94262843951582898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>8.5105516016483307E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.22322310507297499</v>
+      </c>
+      <c r="D13">
+        <v>0.29172849655151301</v>
+      </c>
+      <c r="E13">
+        <v>0.91382577270269305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>9.9844560027122498E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.248005852103233</v>
+      </c>
+      <c r="D14">
+        <v>0.315981894731521</v>
+      </c>
+      <c r="E14">
+        <v>0.89888788759708405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1.4946500770747599E-2</v>
+      </c>
+      <c r="C17">
+        <v>9.7074665129184695E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.122255884110927</v>
+      </c>
+      <c r="E17">
+        <v>0.98486266657709998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2.0167473703622801E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.112316407263278</v>
+      </c>
+      <c r="D18">
+        <v>0.142012223601341</v>
+      </c>
+      <c r="E18">
+        <v>0.97958302125334695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>5.92569261789321E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.19050550460815399</v>
+      </c>
+      <c r="D19">
+        <v>0.24342745542526201</v>
+      </c>
+      <c r="E19">
+        <v>0.94001049175858498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>8.4006473422050407E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.221240684390068</v>
+      </c>
+      <c r="D20">
+        <v>0.28983870148658702</v>
+      </c>
+      <c r="E20">
+        <v>0.91493862122297198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>9.9558673799037906E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.247497633099555</v>
+      </c>
+      <c r="D21">
+        <v>0.31552919745445202</v>
+      </c>
+      <c r="E21">
+        <v>0.89917739480733805</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1.7052503302693301E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.103498183190822</v>
+      </c>
+      <c r="D24">
+        <v>0.13058523833751601</v>
+      </c>
+      <c r="E24">
+        <v>0.98272977769374803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>2.2207731381058599E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.118241511285305</v>
+      </c>
+      <c r="D25">
+        <v>0.14902259409427601</v>
+      </c>
+      <c r="E25">
+        <v>0.97751752287149396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>6.1626542359590503E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.19503578543663</v>
+      </c>
+      <c r="D26">
+        <v>0.24824693799018799</v>
+      </c>
+      <c r="E26">
+        <v>0.93761158362030905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>8.7835974991321494E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.22680968046188299</v>
+      </c>
+      <c r="D27">
+        <v>0.29637134075164701</v>
+      </c>
+      <c r="E27">
+        <v>0.91106103360652901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>0.103928089141845</v>
+      </c>
+      <c r="C28">
+        <v>0.25321978330612099</v>
+      </c>
+      <c r="D28">
+        <v>0.32237878441810602</v>
+      </c>
+      <c r="E28">
+        <v>0.89475250989198596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1.50893563404679E-2</v>
+      </c>
+      <c r="C31">
+        <v>9.7868032753467504E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.122838743031024</v>
+      </c>
+      <c r="E31">
+        <v>0.98471798747777906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1.9735636189579901E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.112439535558223</v>
+      </c>
+      <c r="D32">
+        <v>0.140483573079109</v>
+      </c>
+      <c r="E32">
+        <v>0.98002020083367802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>6.0800716280937098E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.194657668471336</v>
+      </c>
+      <c r="D33">
+        <v>0.24657800793647699</v>
+      </c>
+      <c r="E33">
+        <v>0.93844761699438095</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>8.3209857344627297E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.22020415961742401</v>
+      </c>
+      <c r="D34">
+        <v>0.28846117854118303</v>
+      </c>
+      <c r="E34">
+        <v>0.91574523597955704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>9.3585379421710899E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.23885503411292999</v>
+      </c>
+      <c r="D35">
+        <v>0.30591726303100503</v>
+      </c>
+      <c r="E35">
+        <v>0.90522652864456099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>1.2651910074055099E-2</v>
+      </c>
+      <c r="C38">
+        <v>8.9792437851428902E-2</v>
+      </c>
+      <c r="D38">
+        <v>0.11248070746660201</v>
+      </c>
+      <c r="E38">
+        <v>0.98718655481934503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>1.85959190130233E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.108917295932769</v>
+      </c>
+      <c r="D39">
+        <v>0.13636685907840701</v>
+      </c>
+      <c r="E39">
+        <v>0.98117402009665899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>5.75981773436069E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.187805086374282</v>
+      </c>
+      <c r="D40">
+        <v>0.23999620974063801</v>
+      </c>
+      <c r="E40">
+        <v>0.94168975204229299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>8.2347914576530401E-2</v>
+      </c>
+      <c r="C41">
+        <v>0.218790337443351</v>
+      </c>
+      <c r="D41">
+        <v>0.28696325421333302</v>
+      </c>
+      <c r="E41">
+        <v>0.91661800444126096</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>9.4768375158309895E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.241377457976341</v>
+      </c>
+      <c r="D42">
+        <v>0.30784472823143</v>
+      </c>
+      <c r="E42">
+        <v>0.90402851253747896</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Autoformer/experiment.xlsx
+++ b/Autoformer/experiment.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大三下学习\毕设\TimeSeiresPrediction_pytorch\Autoformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7B8424-DB9F-445D-8BEF-34DCDBF5A138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E471F2F-ECE5-4ACE-BFA6-2601C0B1DE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="555" windowWidth="21600" windowHeight="12600" activeTab="1" xr2:uid="{9183AEB4-B936-48E7-8E93-DE9431C31AC2}"/>
+    <workbookView xWindow="225" yWindow="555" windowWidth="21600" windowHeight="12600" firstSheet="1" activeTab="4" xr2:uid="{9183AEB4-B936-48E7-8E93-DE9431C31AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
     <sheet name="SingleRNN" sheetId="2" r:id="rId2"/>
     <sheet name="MultiRNN" sheetId="3" r:id="rId3"/>
+    <sheet name="Transformer" sheetId="4" r:id="rId4"/>
+    <sheet name="Autoformer" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="34">
   <si>
     <t>Autoformer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +116,54 @@
   </si>
   <si>
     <t>RNN100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer-60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer-70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer-90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transformer-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autoformer-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autoformer-60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autoformer-70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autoformer-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autoformer-90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Autoformer-100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7449,7 +7499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9810FEEC-559B-4DA5-A562-DDEA1CD6D2AD}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:E11"/>
     </sheetView>
   </sheetViews>
@@ -8126,7 +8176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B39C35-1783-4927-B078-C5162AF787E7}">
   <dimension ref="A2:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -8755,7 +8805,7 @@
   <dimension ref="A2:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9376,4 +9426,1266 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A83F15-839C-406E-A4A4-2DF2951F13AC}">
+  <dimension ref="A2:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.9227376207709299E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.107531853020191</v>
+      </c>
+      <c r="D3">
+        <v>0.138662815093994</v>
+      </c>
+      <c r="E3">
+        <v>0.98052713461220198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.5428725630044901E-2</v>
+      </c>
+      <c r="C4">
+        <v>9.5672883093357003E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.12421242147684</v>
+      </c>
+      <c r="E4">
+        <v>0.98438039608299699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1.8418716266751199E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.103465087711811</v>
+      </c>
+      <c r="D5">
+        <v>0.13571557402610701</v>
+      </c>
+      <c r="E5">
+        <v>0.98135357722640004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9.1970851644873602E-3</v>
+      </c>
+      <c r="C6">
+        <v>7.5602844357490498E-2</v>
+      </c>
+      <c r="D6">
+        <v>9.5901437103748294E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.99068742338567894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1.20520498603582E-2</v>
+      </c>
+      <c r="C7">
+        <v>8.75367671251297E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.109781831502914</v>
+      </c>
+      <c r="E7">
+        <v>0.98779494594782502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1.3569639064371501E-2</v>
+      </c>
+      <c r="C10">
+        <v>9.0306274592876407E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.116488792002201</v>
+      </c>
+      <c r="E10">
+        <v>0.98625710885971696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>1.7446456477045999E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.10241990536451299</v>
+      </c>
+      <c r="D11">
+        <v>0.132085040211677</v>
+      </c>
+      <c r="E11">
+        <v>0.98233770206570603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>8.8345790281891805E-3</v>
+      </c>
+      <c r="C12">
+        <v>7.4685886502265902E-2</v>
+      </c>
+      <c r="D12">
+        <v>9.3992441892623901E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.99105620197951705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>8.7349321693181992E-3</v>
+      </c>
+      <c r="C13">
+        <v>7.4434906244277899E-2</v>
+      </c>
+      <c r="D13">
+        <v>9.3460857868194497E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.99115537945181098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1.01153394207358E-2</v>
+      </c>
+      <c r="C14">
+        <v>7.9871281981468201E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.10057504475116701</v>
+      </c>
+      <c r="E14">
+        <v>0.98975624330341805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1.3569639064371501E-2</v>
+      </c>
+      <c r="C17">
+        <v>9.2096328735351493E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.117390275001525</v>
+      </c>
+      <c r="E17">
+        <v>0.98604357894509997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1.0541132651269399E-2</v>
+      </c>
+      <c r="C18">
+        <v>7.99728408455848E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.10267002135515201</v>
+      </c>
+      <c r="E18">
+        <v>0.98932845704257399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>1.3784569688141299E-2</v>
+      </c>
+      <c r="C19">
+        <v>9.08213555812835E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.117407709360122</v>
+      </c>
+      <c r="E19">
+        <v>0.98604501411318701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>9.3153910711407592E-3</v>
+      </c>
+      <c r="C20">
+        <v>7.6698921620845795E-2</v>
+      </c>
+      <c r="D20">
+        <v>9.65162739157676E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.99056763201951903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>1.44249536097049E-2</v>
+      </c>
+      <c r="C21">
+        <v>9.6359379589557606E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.120103925466537</v>
+      </c>
+      <c r="E21">
+        <v>0.98539191763848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1.45664773881435E-2</v>
+      </c>
+      <c r="C24">
+        <v>9.3698754906654302E-2</v>
+      </c>
+      <c r="D24">
+        <v>0.12069166451692501</v>
+      </c>
+      <c r="E24">
+        <v>0.98524754308164098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>2.17383410781621E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.112122185528278</v>
+      </c>
+      <c r="D25">
+        <v>0.14743928611278501</v>
+      </c>
+      <c r="E25">
+        <v>0.97799272090196598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>2.1480446681380199E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.113946050405502</v>
+      </c>
+      <c r="D26">
+        <v>0.146562084555625</v>
+      </c>
+      <c r="E26">
+        <v>0.97825399599969298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>1.1003226973116301E-2</v>
+      </c>
+      <c r="C27">
+        <v>8.3543792366981506E-2</v>
+      </c>
+      <c r="D27">
+        <v>0.104896269738674</v>
+      </c>
+      <c r="E27">
+        <v>0.98885860107839096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>1.0213228873908501E-2</v>
+      </c>
+      <c r="C28">
+        <v>8.0840103328227997E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.10106051713228199</v>
+      </c>
+      <c r="E28">
+        <v>0.98965711146593005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1.49737317115068E-2</v>
+      </c>
+      <c r="C31">
+        <v>9.7267419099807698E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.122367203235626</v>
+      </c>
+      <c r="E31">
+        <v>0.98483508825302102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1.87757220119237E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.103471465408802</v>
+      </c>
+      <c r="D32">
+        <v>0.137024536728858</v>
+      </c>
+      <c r="E32">
+        <v>0.98099199123680503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>1.8927929922938298E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.106105893850326</v>
+      </c>
+      <c r="D33">
+        <v>0.137578815221786</v>
+      </c>
+      <c r="E33">
+        <v>0.98083806782960803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>1.05707701295614E-2</v>
+      </c>
+      <c r="C34">
+        <v>8.1809468567371299E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.10281424969434701</v>
+      </c>
+      <c r="E34">
+        <v>0.98929648753255595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>9.0462416410446098E-3</v>
+      </c>
+      <c r="C35">
+        <v>7.6134108006954193E-2</v>
+      </c>
+      <c r="D35">
+        <v>9.5111735165119102E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.99083891417831105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>1.28401741385459E-2</v>
+      </c>
+      <c r="C38">
+        <v>8.8069766759872395E-2</v>
+      </c>
+      <c r="D38">
+        <v>0.113314494490623</v>
+      </c>
+      <c r="E38">
+        <v>0.98699588701128904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>1.8752597272396001E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.10543736815452499</v>
+      </c>
+      <c r="D39">
+        <v>0.136940121650695</v>
+      </c>
+      <c r="E39">
+        <v>0.98101540096104101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>1.6375461593270298E-2</v>
+      </c>
+      <c r="C40">
+        <v>9.7036056220531394E-2</v>
+      </c>
+      <c r="D40">
+        <v>0.12796664237975999</v>
+      </c>
+      <c r="E40">
+        <v>0.98342209123074997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>1.2655527330935E-2</v>
+      </c>
+      <c r="C41">
+        <v>9.0019918978214195E-2</v>
+      </c>
+      <c r="D41">
+        <v>0.11249678581953</v>
+      </c>
+      <c r="E41">
+        <v>0.98718555178493195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>1.8763296306133201E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.10207512974739</v>
+      </c>
+      <c r="D42">
+        <v>0.13697917759418399</v>
+      </c>
+      <c r="E42">
+        <v>0.980998499318957</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DA1A9F-84F1-4306-AE6F-F1D454205FCC}">
+  <dimension ref="A2:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4.3856043368577902E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.16691067814826899</v>
+      </c>
+      <c r="D3">
+        <v>0.20941834151744801</v>
+      </c>
+      <c r="E3">
+        <v>0.95558401569724005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>5.0660111010074602E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.17575882375240301</v>
+      </c>
+      <c r="D4">
+        <v>0.22507801651954601</v>
+      </c>
+      <c r="E4">
+        <v>0.94871314242482097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>9.7460202872753102E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.24470426142215701</v>
+      </c>
+      <c r="D5">
+        <v>0.31218618154525701</v>
+      </c>
+      <c r="E5">
+        <v>0.90133491903543395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.11408254504203701</v>
+      </c>
+      <c r="C6">
+        <v>0.26378247141838002</v>
+      </c>
+      <c r="D6">
+        <v>0.33776107430458002</v>
+      </c>
+      <c r="E6">
+        <v>0.88448487222194605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.16381028294563199</v>
+      </c>
+      <c r="C7">
+        <v>0.3167225420475</v>
+      </c>
+      <c r="D7">
+        <v>0.40473482012748702</v>
+      </c>
+      <c r="E7">
+        <v>0.83411009609699205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>4.6000298112630802E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.16847804188728299</v>
+      </c>
+      <c r="D10">
+        <v>0.21447679400444</v>
+      </c>
+      <c r="E10">
+        <v>0.95341238379478399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>6.3433885574340806E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.19595247507095301</v>
+      </c>
+      <c r="D11">
+        <v>0.25186085700988697</v>
+      </c>
+      <c r="E11">
+        <v>0.93578133732080404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>9.90704745054245E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.24470426142215701</v>
+      </c>
+      <c r="D12">
+        <v>0.31475463509559598</v>
+      </c>
+      <c r="E12">
+        <v>0.89970473945140805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>7.8423567116260501E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.21510080993175501</v>
+      </c>
+      <c r="D13">
+        <v>0.28004208207130399</v>
+      </c>
+      <c r="E13">
+        <v>0.92059163004159905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>0.122531533241271</v>
+      </c>
+      <c r="C14">
+        <v>0.276028722524642</v>
+      </c>
+      <c r="D14">
+        <v>0.350045055150985</v>
+      </c>
+      <c r="E14">
+        <v>0.87591289728879895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3.5123948007822002E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.15000537037849401</v>
+      </c>
+      <c r="D17">
+        <v>0.18741384148597701</v>
+      </c>
+      <c r="E17">
+        <v>0.96442760154604901</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>4.4266212731599801E-2</v>
+      </c>
+      <c r="C18">
+        <v>0.165408685803413</v>
+      </c>
+      <c r="D18">
+        <v>0.21039536595344499</v>
+      </c>
+      <c r="E18">
+        <v>0.95518614351749398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>5.41431866586208E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.18192122876644101</v>
+      </c>
+      <c r="D19">
+        <v>0.232686892151832</v>
+      </c>
+      <c r="E19">
+        <v>0.94518745318055097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>0.116420701146125</v>
+      </c>
+      <c r="C20">
+        <v>0.26491454243659901</v>
+      </c>
+      <c r="D20">
+        <v>0.34120479226112299</v>
+      </c>
+      <c r="E20">
+        <v>0.88211735337972597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>7.8270189464092199E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.21940998733043601</v>
+      </c>
+      <c r="D21">
+        <v>0.27976810932159402</v>
+      </c>
+      <c r="E21">
+        <v>0.92073614895343703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>3.5900514572858797E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.15094861388206399</v>
+      </c>
+      <c r="D24">
+        <v>0.18947431445121701</v>
+      </c>
+      <c r="E24">
+        <v>0.96364111825823695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>3.6446571350097601E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.15097554028034199</v>
+      </c>
+      <c r="D25">
+        <v>0.19090984761714899</v>
+      </c>
+      <c r="E25">
+        <v>0.963102526962757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>5.9847913682460702E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.19317451119422899</v>
+      </c>
+      <c r="D26">
+        <v>0.24463833868503501</v>
+      </c>
+      <c r="E26">
+        <v>0.93941219896078099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>9.7254604101181003E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.242067486047744</v>
+      </c>
+      <c r="D27">
+        <v>0.31185671687126099</v>
+      </c>
+      <c r="E27">
+        <v>0.90152412652969305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>9.7749009728431702E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.24419371783733301</v>
+      </c>
+      <c r="D28">
+        <v>0.312648385763168</v>
+      </c>
+      <c r="E28">
+        <v>0.90101004391908601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>5.6302323937416E-2</v>
+      </c>
+      <c r="C31">
+        <v>0.18771280348300901</v>
+      </c>
+      <c r="D31">
+        <v>0.237281113862991</v>
+      </c>
+      <c r="E31">
+        <v>0.942978825420141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>4.2574189603328698E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.16417159140109999</v>
+      </c>
+      <c r="D32">
+        <v>0.20633514225482899</v>
+      </c>
+      <c r="E32">
+        <v>0.95689909905195203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>8.2409560680389404E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.22479535639286</v>
+      </c>
+      <c r="D33">
+        <v>0.287070661783218</v>
+      </c>
+      <c r="E33">
+        <v>0.91657163202762604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>0.15536694228649101</v>
+      </c>
+      <c r="C34">
+        <v>0.31098270416259699</v>
+      </c>
+      <c r="D34">
+        <v>0.39416614174842801</v>
+      </c>
+      <c r="E34">
+        <v>0.84268204867839802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>6.7512065172195407E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.20256121456623</v>
+      </c>
+      <c r="D35">
+        <v>0.259830832481384</v>
+      </c>
+      <c r="E35">
+        <v>0.93163084983825595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>3.2288137823343201E-2</v>
+      </c>
+      <c r="C38">
+        <v>0.143586486577987</v>
+      </c>
+      <c r="D38">
+        <v>0.17968900501728</v>
+      </c>
+      <c r="E38">
+        <v>0.96729961782693796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>4.8617061227560002E-2</v>
+      </c>
+      <c r="C39">
+        <v>0.17457194626331299</v>
+      </c>
+      <c r="D39">
+        <v>0.22049276530742601</v>
+      </c>
+      <c r="E39">
+        <v>0.95078146457672097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>5.3230762481689398E-2</v>
+      </c>
+      <c r="C40">
+        <v>0.18271103501319799</v>
+      </c>
+      <c r="D40">
+        <v>0.23071792721748299</v>
+      </c>
+      <c r="E40">
+        <v>0.94611115753650599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>9.42423641681671E-2</v>
+      </c>
+      <c r="C41">
+        <v>0.23573078215122201</v>
+      </c>
+      <c r="D41">
+        <v>0.30698919296264598</v>
+      </c>
+      <c r="E41">
+        <v>0.90457419306039799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>6.2205303460359497E-2</v>
+      </c>
+      <c r="C42">
+        <v>0.196011677384376</v>
+      </c>
+      <c r="D42">
+        <v>0.24940991401672299</v>
+      </c>
+      <c r="E42">
+        <v>0.93700498342514005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Autoformer/experiment.xlsx
+++ b/Autoformer/experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大三下学习\毕设\TimeSeiresPrediction_pytorch\Autoformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E471F2F-ECE5-4ACE-BFA6-2601C0B1DE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13C72DB-0803-4C81-8611-91BBB090C7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="555" windowWidth="21600" windowHeight="12600" firstSheet="1" activeTab="4" xr2:uid="{9183AEB4-B936-48E7-8E93-DE9431C31AC2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="4" xr2:uid="{9183AEB4-B936-48E7-8E93-DE9431C31AC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="39">
   <si>
     <t>Autoformer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,26 @@
   </si>
   <si>
     <t>Autoformer-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label_len 0 rnnlayers 2 factor 3 epoch 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label_len 10 rnnlayers 2 factor 3 epoch 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label_len 0 e layers 2 d layers 1 factor 3 epoch 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label_len 10 e layers 2 d layers 1 factor 3 epoch 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8174,14 +8194,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B39C35-1783-4927-B078-C5162AF787E7}">
-  <dimension ref="A2:E42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
@@ -8802,14 +8830,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4753813C-71CC-41E8-AF34-68E6995A423C}">
-  <dimension ref="A2:E42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
@@ -9430,10 +9466,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A83F15-839C-406E-A4A4-2DF2951F13AC}">
-  <dimension ref="A2:E42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9441,6 +9477,14 @@
     <col min="1" max="1" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
@@ -10061,10 +10105,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DA1A9F-84F1-4306-AE6F-F1D454205FCC}">
-  <dimension ref="A2:E42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10072,6 +10116,14 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
